--- a/biology/Zoologie/Hadrosauridae/Hadrosauridae.xlsx
+++ b/biology/Zoologie/Hadrosauridae/Hadrosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hadrosauridae (hadrosauridés en français), ou « dinosaures à bec de canard », forment une famille éteinte de dinosaures ornithopodes très commune en Amérique du Nord, en Asie et en Europe au Crétacé supérieur. Ces animaux herbivores possédaient des caractéristiques communes avec leurs ancêtres iguanodontidés du Jurassique supérieur et Crétacé inférieur.
 La famille des hadrosauridés appartient à la super-famille des hadrosauroïdes (Hadrosauroidea).
@@ -513,12 +525,89 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les hadrosauridés sont connus sous le nom de « dinosaures à bec de canard » en raison de la similitude morphologique de leur tête avec celle des canards modernes : toute la partie avant du crâne est aplatie et élargie en forme de bec, idéal pour la collecte des feuilles et pousses des forêts tropicales d'Asie, d'Europe et d'Amérique du Nord. Cependant, le fond de la gueule contient des milliers de petites dents aptes à déchiqueter la nourriture avant de l'avaler. Les hadrosauridés, comme leurs cousins iguanodontidés, avaient des molaires et des incisives rudimentaires, qui se révélèrent probablement un facteur crucial dans leur succès au Crétacé, contrairement aux sauropodes qui dépendaient presque entièrement des gastrolithes.
-Taxinomie
-La liste des genres est construite à partir des publications de Prieto-Marquez et ses collègues de 2013 et 2016[1],[2], et des descriptions de genres postérieures.
-Hadrosauroidea basaux
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hadrosauridés sont connus sous le nom de « dinosaures à bec de canard » en raison de la similitude morphologique de leur tête avec celle des canards modernes : toute la partie avant du crâne est aplatie et élargie en forme de bec, idéal pour la collecte des feuilles et pousses des forêts tropicales d'Asie, d'Europe et d'Amérique du Nord. Cependant, le fond de la gueule contient des milliers de petites dents aptes à déchiqueter la nourriture avant de l'avaler. Les hadrosauridés, comme leurs cousins iguanodontidés, avaient des molaires et des incisives rudimentaires, qui se révélèrent probablement un facteur crucial dans leur succès au Crétacé, contrairement aux sauropodes qui dépendaient presque entièrement des gastrolithes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des genres est construite à partir des publications de Prieto-Marquez et ses collègues de 2013 et 2016 et des descriptions de genres postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hadrosauroidea basaux</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 † Altirhinus
 † Bactrosaurus
 † Batyrosaurus
@@ -526,42 +615,122 @@
 † Claosaurus
 † Choyrodon
 † Datonglong
-† Eolambia[3]
-† Equijubus[3]
-† Gilmoreosaurus[3]
-† Gobihadros[4]
+† Eolambia
+† Equijubus
+† Gilmoreosaurus
+† Gobihadros
 † Gongpoquansaurus
 † Huehuecanauhthlus
 † Jeyawati
 † Jintasaurus
-† Jinzhousaurus[5]
+† Jinzhousaurus
 † Koshisaurus
 † Levnesovia
 † Lophorhothon
 † Mantellisaurus ?
 † Orthomerus
 † Ouranosaurus  ?
-† Penelopognathus[6]
+† Penelopognathus
 † Plesiohadros
-† Probactrosaurus[7]
-† Protohadros[3]
+† Probactrosaurus
+† Protohadros
 † Siamodon
 † Sirindhorna
 † Shuangmiaosaurus
-† Tanius[3]
+† Tanius
 † Telmatosaurus
 † Tethyshadros
 † Xuwulong
 † Yunganglong
 † Zhanghenlong
 † Zuoyunlong
-Hadrosauridae basaux
-† Aquilarhinus[8]
-† Eotrachodon[9]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hadrosauridae basaux</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+† Aquilarhinus
+† Eotrachodon
 † Lapampasaurus
 † Latirhinus
 † Hadrosaurus
-Lambeosaurinae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lambeosaurinae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 † Adelolophus
 † Adynomosaurus
 † Amurosaurus
@@ -585,19 +754,59 @@
 † Sahaliyania
 † Tsintaosaurus
 † Velafrons
-Saurolophinae (ex-Hadrosaurinae)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Saurolophinae (ex-Hadrosaurinae)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 † Acristavus
-† Anasazisaurus[10]
+† Anasazisaurus
 † Augustynolophus
 † Barsboldia
-† Bonapartesaurus[3]
+† Bonapartesaurus
 † Brachylophosaurus
 † Edmontosaurus
 † Gryposaurus
 † Kamuysaurus
 † Kerberosaurus
 † Kritosaurus
-† Kundurosaurus (possible synonyme junior de Kerberosaurus)[11]
+† Kundurosaurus (possible synonyme junior de Kerberosaurus)
 † Laiyangosaurus
 † Maiasaura
 † Naashoibitosaurus
@@ -609,8 +818,48 @@
 † Secernosaurus
 † Ugrunaaluk
 † Wulagasaurus
-Genres obsolètes ou à nom douteux
-† Anatotitan (synonyme junior d'Edmontosaurus)[12] (obsolète)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Genres obsolètes ou à nom douteux</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+† Anatotitan (synonyme junior d'Edmontosaurus) (obsolète)
 † Arstanosaurus (obsolète)
 † Cionodon (obsolète)
 † Claorhynchus (obsolète) ?
@@ -621,14 +870,49 @@
 † Nanyangosaurus (iguanodonte basal)
 † Procheneosaurus (obsolète)
 † Pteropelyx (obsolète)
-† Shuangmiaosaurus (iguanodonte basal)[13]
+† Shuangmiaosaurus (iguanodonte basal)
 † Stephanosaurus (obsolète)
 † Tetragonosaurus (obsolète)
 † Thespesius (obsolète)
 † Trachodon (obsolète)
 † Willinakaqe (obsolète)
-Phylogénie
-Le cladogramme ci-dessous a été réalisé par Prieto-Marquez et ses collègues en 2016[2]. Il précise leur analyse originale de 2010[14]. Leur étude a pris en compte 61 espèces d'hadrosauridés caractérisées par 273 caractéristiques morphologiques (189 au niveau du crâne et 84 pour le squelette post-crânien) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauridae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le cladogramme ci-dessous a été réalisé par Prieto-Marquez et ses collègues en 2016. Il précise leur analyse originale de 2010. Leur étude a pris en compte 61 espèces d'hadrosauridés caractérisées par 273 caractéristiques morphologiques (189 au niveau du crâne et 84 pour le squelette post-crânien) :
 Telmatosaurus
 Jintasaurus
 Lophorhothon
